--- a/04_BugAndEnhancementList.xlsx
+++ b/04_BugAndEnhancementList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E59301D-FD3D-48DD-8716-8F8888554076}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2280E0-A713-4A53-BFB9-091538D3B4FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Remove. Not used</t>
+  </si>
+  <si>
+    <t>HIGH IMPORTANCE: Put a message that people make sure processess has been listed correctly before the OEdb is generated.</t>
+  </si>
+  <si>
+    <t>Prioritised</t>
   </si>
 </sst>
 </file>
@@ -426,17 +432,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="55.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="49.81640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="17.6328125" style="1"/>
@@ -571,6 +577,23 @@
         <v>22</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/04_BugAndEnhancementList.xlsx
+++ b/04_BugAndEnhancementList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2280E0-A713-4A53-BFB9-091538D3B4FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC140E0-4376-444E-85A3-6068C5DCCCF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Bug/Enh</t>
   </si>
   <si>
-    <t>Enh</t>
-  </si>
-  <si>
     <t>BASE 3.8.0.44</t>
   </si>
   <si>
@@ -109,6 +106,105 @@
   </si>
   <si>
     <t>Prioritised</t>
+  </si>
+  <si>
+    <t>FvN</t>
+  </si>
+  <si>
+    <t>Sometimes OU address is different from Org address. How to handel</t>
+  </si>
+  <si>
+    <t>Maybe use OU locations to identify if it has chagned.</t>
+  </si>
+  <si>
+    <t>Staff. Add formula for Function to be = concat("Perform ",Dx", activietis on ", bx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1A-SS line 117 </t>
+  </si>
+  <si>
+    <t>NOt all staff, just participants</t>
+  </si>
+  <si>
+    <t>P1P-SS line 159</t>
+  </si>
+  <si>
+    <t>Checked that PAD, PCM&lt; OT is removed for all projects (comment)</t>
+  </si>
+  <si>
+    <t>P1P-R</t>
+  </si>
+  <si>
+    <t>Updated descriptions to map to Francois … see yellow items</t>
+  </si>
+  <si>
+    <t>Standard: row 122 use description form P1PA-R: Row 19</t>
+  </si>
+  <si>
+    <t>Update schedle and all links</t>
+  </si>
+  <si>
+    <t>Performance report allso addeda s an ouptu P1Pa-R: Row 23</t>
+  </si>
+  <si>
+    <t>Copy P1PA-R 23-24 and 65-69.Point to tab:Standard. PUt performance rerport and virutal udnerneath so it can be hidden</t>
+  </si>
+  <si>
+    <t>P1PA</t>
+  </si>
+  <si>
+    <t>P1PAR row 121, 122 add</t>
+  </si>
+  <si>
+    <t>P1Pa-R</t>
+  </si>
+  <si>
+    <t>179 to 183 addedd for logsitics</t>
+  </si>
+  <si>
+    <t>P1PA-R</t>
+  </si>
+  <si>
+    <t>UPdate risk as per FvN</t>
+  </si>
+  <si>
+    <t>Project&amp;Support</t>
+  </si>
+  <si>
+    <t>Update the columns with keywords to enahbel people to add their own columsn and descirptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add short scheudle </t>
+  </si>
+  <si>
+    <t>xtra:target</t>
+  </si>
+  <si>
+    <t>xtra:short shcedule</t>
+  </si>
+  <si>
+    <t>Add Target. Replace PvZ's voarding target.</t>
+  </si>
+  <si>
+    <t>Rename Standar na pptxLinks1 pptxLink2</t>
+  </si>
+  <si>
+    <t>Standard2</t>
+  </si>
+  <si>
+    <t>Use english and chinese and the full date in column E (dd-mmm-yyyy)</t>
+  </si>
+  <si>
+    <t>Move CMMI tool to end</t>
+  </si>
+  <si>
+    <t>BASE tool</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Enhancement</t>
   </si>
 </sst>
 </file>
@@ -432,16 +528,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="55.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="49.81640625" style="1" customWidth="1"/>
@@ -479,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -502,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -525,13 +623,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -539,59 +637,382 @@
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>109974</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>44226</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>44226</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>44226</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>44226</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/04_BugAndEnhancementList.xlsx
+++ b/04_BugAndEnhancementList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC140E0-4376-444E-85A3-6068C5DCCCF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BA0FE7-760D-4F1B-8CFA-921613CAAD73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4440" yWindow="-8445" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>Enhancement</t>
+  </si>
+  <si>
+    <t>Improve</t>
+  </si>
+  <si>
+    <t>Remove column J (included) Not used anymore</t>
+  </si>
+  <si>
+    <t>01_44Vxx_ShortName_CAS_Plan:Column J</t>
   </si>
 </sst>
 </file>
@@ -528,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,27 +578,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>44226</v>
+        <v>44233</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -606,13 +612,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -629,18 +635,21 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>44231</v>
+        <v>44226</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>56</v>
@@ -649,50 +658,50 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -709,30 +718,30 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -749,10 +758,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -769,15 +778,15 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>109974</v>
+        <v>44231</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -789,15 +798,15 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>44231</v>
+        <v>109974</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -809,10 +818,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -828,62 +837,62 @@
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>44226</v>
+        <v>44231</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>56</v>
@@ -892,18 +901,18 @@
         <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44226</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>56</v>
@@ -912,13 +921,13 @@
         <v>55</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44226</v>
       </c>
@@ -926,33 +935,36 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>44231</v>
+        <v>44226</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44231</v>
       </c>
@@ -966,13 +978,10 @@
         <v>55</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44231</v>
       </c>
@@ -986,32 +995,52 @@
         <v>55</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/04_BugAndEnhancementList.xlsx
+++ b/04_BugAndEnhancementList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BA0FE7-760D-4F1B-8CFA-921613CAAD73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C450C9E-D92A-4AD5-AAC4-F4A62CBF3BD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4440" yWindow="-8445" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>01_44Vxx_ShortName_CAS_Plan:Column J</t>
+  </si>
+  <si>
+    <t>Move templates to code</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Rename testers to tester</t>
   </si>
 </sst>
 </file>
@@ -537,15 +546,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.36328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
@@ -580,10 +589,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>44233</v>
+        <v>44258</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>57</v>
@@ -592,84 +601,52 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>44226</v>
+        <v>44258</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>44226</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>44226</v>
+        <v>44233</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>44231</v>
+        <v>44226</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>56</v>
@@ -678,18 +655,21 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>44231</v>
+        <v>44226</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>56</v>
@@ -698,18 +678,21 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>44231</v>
+        <v>44226</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>56</v>
@@ -718,10 +701,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -738,10 +721,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -758,13 +741,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44231</v>
       </c>
@@ -778,13 +761,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44231</v>
       </c>
@@ -798,15 +781,15 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>109974</v>
+        <v>44231</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -818,10 +801,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -838,10 +821,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -857,119 +840,122 @@
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>109974</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>44226</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>44226</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>44226</v>
+        <v>44231</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>44231</v>
+        <v>44226</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>56</v>
@@ -978,15 +964,18 @@
         <v>55</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>44231</v>
+        <v>44226</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>56</v>
@@ -995,52 +984,106 @@
         <v>55</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>44231</v>
+        <v>44226</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>45</v>
       </c>
     </row>
